--- a/documents/bdd/excel/overview Migration.xlsx
+++ b/documents/bdd/excel/overview Migration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAMEO_2.0\documents\bdd\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj-lx\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB34784-A5A1-4891-A229-4E315C16E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B8632-BC61-45B9-90AF-0DB189EF18CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D2A048F-9176-491D-B2B4-A4C389608C0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D2A048F-9176-491D-B2B4-A4C389608C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Table</t>
   </si>
@@ -166,6 +164,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Current_Timestamp et  Current_Timestamp1 format: aaaa-mm-jj hh:mm:ss</t>
+  </si>
+  <si>
+    <t>Remarque: Toutes les tables sont importées au format CSV UTF8 avec un séparateur ";"</t>
+  </si>
+  <si>
+    <t>Creation_Time et Heu_Maj format : aaaa-mm-jj hh:mm:ss</t>
+  </si>
+  <si>
+    <t>Heu_Maj et Heu_Maj1 format : aaaa-mm-jj hh:mm:ss</t>
+  </si>
+  <si>
+    <t>Heu_Maj et Heu_Maj2 format : aaaa-mm-jj hh:mm:ss ; Delete ID (Date 0000-00-00 ou 1970-04-01) et (Out_Date 0000-00-00)</t>
   </si>
 </sst>
 </file>
@@ -224,23 +237,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -269,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -565,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5354B24D-143D-43D6-9ECB-AEC05F1F8767}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -605,7 +612,9 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -614,7 +623,9 @@
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -767,7 +778,9 @@
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -776,7 +789,9 @@
       <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -909,9 +924,11 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -937,19 +954,25 @@
       </c>
       <c r="B40" s="3">
         <f>COUNTIF(B2:B39, "OK")/COUNTIF(B2:B39, "*")</f>
-        <v>0.34210526315789475</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>